--- a/report/phieu_giao_nhiem_vu_datn/PGNV_DATN_Dinh_Thai_Son.xlsx
+++ b/report/phieu_giao_nhiem_vu_datn/PGNV_DATN_Dinh_Thai_Son.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/son_dt210750_sis_hust_edu_vn/Documents/DATN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation-Thesis-HUST\report\phieu_giao_nhiem_vu_datn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{D9A345E6-251D-4892-87A9-E7B24CA7F4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4887E512-3348-4263-965C-1E52A5321FCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A97F6-A29A-4A02-B11D-304B9555B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A464A0DE-6FE7-4ADC-922E-AB9B9188A9BD}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" xr2:uid="{A464A0DE-6FE7-4ADC-922E-AB9B9188A9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Danh_sách_phân_ban">#REF!</definedName>
     <definedName name="Tuần">#REF!</definedName>
@@ -406,46 +403,46 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,46 +460,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Kỹ sư"/>
-      <sheetName val="Kỹ sư (Ví dụ)"/>
-      <sheetName val="Kỹ sư (ĐATN tại DN)"/>
-      <sheetName val="Kỹ sư (ĐATN tại DN) (Ví dụ)"/>
-      <sheetName val="Cử nhân"/>
-      <sheetName val="Cử nhân (Ví dụ)"/>
-      <sheetName val="Cử nhân (ĐATN tại DN)"/>
-      <sheetName val="Cử nhân (ĐATN tại DN) (Ví dụ)"/>
-      <sheetName val="Engineer"/>
-      <sheetName val="Engineer (Company)"/>
-      <sheetName val="Bachelor"/>
-      <sheetName val="Bachelor (Company)"/>
-      <sheetName val="DS phân ban"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464C4FDA-DE47-466A-8038-586F829ABF7E}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,53 +803,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -943,63 +900,63 @@
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="22">
         <v>20210750</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="21">
-        <v>84915487872</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="C10" s="22">
+        <v>915487872</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="22">
         <v>750665</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1021,34 +978,34 @@
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1089,117 +1046,117 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -1212,45 +1169,45 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1258,45 +1215,45 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1304,19 +1261,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1324,45 +1281,45 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1370,45 +1327,45 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -1416,19 +1373,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -1453,45 +1410,45 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -1516,45 +1473,45 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -1579,45 +1536,45 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -1642,48 +1599,48 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
     </row>
     <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -1705,45 +1662,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
     </row>
     <row r="69" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
     </row>
     <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -1828,12 +1785,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A67:K69"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A26:K28"/>
+    <mergeCell ref="A30:K32"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A36:K38"/>
+    <mergeCell ref="A40:K42"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A47:K49"/>
+    <mergeCell ref="A52:K54"/>
+    <mergeCell ref="A57:K59"/>
+    <mergeCell ref="A62:K64"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="I10:K10"/>
@@ -1846,18 +1809,12 @@
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C20:K20"/>
-    <mergeCell ref="A67:K69"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A26:K28"/>
-    <mergeCell ref="A30:K32"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A36:K38"/>
-    <mergeCell ref="A40:K42"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A47:K49"/>
-    <mergeCell ref="A52:K54"/>
-    <mergeCell ref="A57:K59"/>
-    <mergeCell ref="A62:K64"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:K21" xr:uid="{96A26894-27C6-449C-ACCD-157E190D0FA3}">
@@ -2128,20 +2085,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e98b9928-0781-460d-b37e-f64b2fc2cd06" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e98b9928-0781-460d-b37e-f64b2fc2cd06" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2164,6 +2121,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1BC1C04-0BF8-4FFB-A316-442A802CCA07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EA2A46B-5C97-4895-94EE-8029A5550CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2178,12 +2143,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1BC1C04-0BF8-4FFB-A316-442A802CCA07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>